--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1464"/>
+  <dimension ref="A1:I1465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39985,6 +39985,33 @@
       </c>
       <c r="I1464" t="inlineStr"/>
     </row>
+    <row r="1465">
+      <c r="A1465" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B1465" t="n">
+        <v>4144</v>
+      </c>
+      <c r="C1465" t="n">
+        <v>4159</v>
+      </c>
+      <c r="D1465" t="n">
+        <v>4055.699951171875</v>
+      </c>
+      <c r="E1465" t="n">
+        <v>4142.2998046875</v>
+      </c>
+      <c r="F1465" t="n">
+        <v>215904</v>
+      </c>
+      <c r="G1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1465" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -39999,10 +39999,10 @@
         <v>4055.699951171875</v>
       </c>
       <c r="E1465" t="n">
-        <v>4142.2998046875</v>
+        <v>4137.7998046875</v>
       </c>
       <c r="F1465" t="n">
-        <v>215904</v>
+        <v>291961</v>
       </c>
       <c r="G1465" t="n">
         <v>0</v>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1465"/>
+  <dimension ref="A1:I1466"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40012,6 +40012,33 @@
       </c>
       <c r="I1465" t="inlineStr"/>
     </row>
+    <row r="1466">
+      <c r="A1466" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B1466" t="n">
+        <v>4103.2001953125</v>
+      </c>
+      <c r="C1466" t="n">
+        <v>4123.7998046875</v>
+      </c>
+      <c r="D1466" t="n">
+        <v>3996.300048828125</v>
+      </c>
+      <c r="E1466" t="n">
+        <v>4006.60009765625</v>
+      </c>
+      <c r="F1466" t="n">
+        <v>217823</v>
+      </c>
+      <c r="G1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1466" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1466"/>
+  <dimension ref="A1:I1467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40039,6 +40039,33 @@
       </c>
       <c r="I1466" t="inlineStr"/>
     </row>
+    <row r="1467">
+      <c r="A1467" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B1467" t="n">
+        <v>3999.89990234375</v>
+      </c>
+      <c r="C1467" t="n">
+        <v>4034.199951171875</v>
+      </c>
+      <c r="D1467" t="n">
+        <v>3901.300048828125</v>
+      </c>
+      <c r="E1467" t="n">
+        <v>3961.699951171875</v>
+      </c>
+      <c r="F1467" t="n">
+        <v>237173</v>
+      </c>
+      <c r="G1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1467" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1467"/>
+  <dimension ref="A1:I1468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40066,6 +40066,33 @@
       </c>
       <c r="I1467" t="inlineStr"/>
     </row>
+    <row r="1468">
+      <c r="A1468" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B1468" t="n">
+        <v>3967.199951171875</v>
+      </c>
+      <c r="C1468" t="n">
+        <v>4046.199951171875</v>
+      </c>
+      <c r="D1468" t="n">
+        <v>3930</v>
+      </c>
+      <c r="E1468" t="n">
+        <v>4030.89990234375</v>
+      </c>
+      <c r="F1468" t="n">
+        <v>165394</v>
+      </c>
+      <c r="G1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1468" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1468"/>
+  <dimension ref="A1:I1469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40093,6 +40093,33 @@
       </c>
       <c r="I1468" t="inlineStr"/>
     </row>
+    <row r="1469">
+      <c r="A1469" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B1469" t="n">
+        <v>3942.800048828125</v>
+      </c>
+      <c r="C1469" t="n">
+        <v>4028.300048828125</v>
+      </c>
+      <c r="D1469" t="n">
+        <v>3925.10009765625</v>
+      </c>
+      <c r="E1469" t="n">
+        <v>4006.89990234375</v>
+      </c>
+      <c r="F1469" t="n">
+        <v>180909</v>
+      </c>
+      <c r="G1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1469" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1469"/>
+  <dimension ref="A1:I1470"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40120,6 +40120,33 @@
       </c>
       <c r="I1469" t="inlineStr"/>
     </row>
+    <row r="1470">
+      <c r="A1470" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B1470" t="n">
+        <v>4038.199951171875</v>
+      </c>
+      <c r="C1470" t="n">
+        <v>4059.89990234375</v>
+      </c>
+      <c r="D1470" t="n">
+        <v>4001.89990234375</v>
+      </c>
+      <c r="E1470" t="n">
+        <v>4033.39990234375</v>
+      </c>
+      <c r="F1470" t="n">
+        <v>142714</v>
+      </c>
+      <c r="G1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1470" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -40131,13 +40131,13 @@
         <v>4059.89990234375</v>
       </c>
       <c r="D1470" t="n">
-        <v>4001.89990234375</v>
+        <v>3982.300048828125</v>
       </c>
       <c r="E1470" t="n">
-        <v>4033.39990234375</v>
+        <v>3996.5</v>
       </c>
       <c r="F1470" t="n">
-        <v>142714</v>
+        <v>233725</v>
       </c>
       <c r="G1470" t="n">
         <v>0</v>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1470"/>
+  <dimension ref="A1:I1471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40147,6 +40147,33 @@
       </c>
       <c r="I1470" t="inlineStr"/>
     </row>
+    <row r="1471">
+      <c r="A1471" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B1471" t="n">
+        <v>4001</v>
+      </c>
+      <c r="C1471" t="n">
+        <v>4038.699951171875</v>
+      </c>
+      <c r="D1471" t="n">
+        <v>3971.300048828125</v>
+      </c>
+      <c r="E1471" t="n">
+        <v>4020</v>
+      </c>
+      <c r="F1471" t="n">
+        <v>136974</v>
+      </c>
+      <c r="G1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1471" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1471"/>
+  <dimension ref="A1:I1472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40174,6 +40174,33 @@
       </c>
       <c r="I1471" t="inlineStr"/>
     </row>
+    <row r="1472">
+      <c r="A1472" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B1472" t="n">
+        <v>4013.699951171875</v>
+      </c>
+      <c r="C1472" t="n">
+        <v>4018</v>
+      </c>
+      <c r="D1472" t="n">
+        <v>3942.10009765625</v>
+      </c>
+      <c r="E1472" t="n">
+        <v>3946.699951171875</v>
+      </c>
+      <c r="F1472" t="n">
+        <v>138036</v>
+      </c>
+      <c r="G1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1472" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1472"/>
+  <dimension ref="A1:I1473"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40201,6 +40201,33 @@
       </c>
       <c r="I1472" t="inlineStr"/>
     </row>
+    <row r="1473">
+      <c r="A1473" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B1473" t="n">
+        <v>3939.5</v>
+      </c>
+      <c r="C1473" t="n">
+        <v>3997</v>
+      </c>
+      <c r="D1473" t="n">
+        <v>3935.699951171875</v>
+      </c>
+      <c r="E1473" t="n">
+        <v>3992.199951171875</v>
+      </c>
+      <c r="F1473" t="n">
+        <v>106799</v>
+      </c>
+      <c r="G1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1473" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1473"/>
+  <dimension ref="A1:I1474"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40228,6 +40228,33 @@
       </c>
       <c r="I1473" t="inlineStr"/>
     </row>
+    <row r="1474">
+      <c r="A1474" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B1474" t="n">
+        <v>3992.39990234375</v>
+      </c>
+      <c r="C1474" t="n">
+        <v>4028.699951171875</v>
+      </c>
+      <c r="D1474" t="n">
+        <v>3973.199951171875</v>
+      </c>
+      <c r="E1474" t="n">
+        <v>4008.89990234375</v>
+      </c>
+      <c r="F1474" t="n">
+        <v>98944</v>
+      </c>
+      <c r="G1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1474" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1474"/>
+  <dimension ref="A1:I1475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40255,6 +40255,33 @@
       </c>
       <c r="I1474" t="inlineStr"/>
     </row>
+    <row r="1475">
+      <c r="A1475" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B1475" t="n">
+        <v>3986.89990234375</v>
+      </c>
+      <c r="C1475" t="n">
+        <v>4022.60009765625</v>
+      </c>
+      <c r="D1475" t="n">
+        <v>3981.60009765625</v>
+      </c>
+      <c r="E1475" t="n">
+        <v>4002.89990234375</v>
+      </c>
+      <c r="F1475" t="n">
+        <v>86034</v>
+      </c>
+      <c r="G1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1475" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -40263,16 +40263,16 @@
         <v>3986.89990234375</v>
       </c>
       <c r="C1475" t="n">
-        <v>4022.60009765625</v>
+        <v>4035.800048828125</v>
       </c>
       <c r="D1475" t="n">
         <v>3981.60009765625</v>
       </c>
       <c r="E1475" t="n">
-        <v>4002.89990234375</v>
+        <v>4009.800048828125</v>
       </c>
       <c r="F1475" t="n">
-        <v>86034</v>
+        <v>198894</v>
       </c>
       <c r="G1475" t="n">
         <v>0</v>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1475"/>
+  <dimension ref="A1:I1476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40282,6 +40282,33 @@
       </c>
       <c r="I1475" t="inlineStr"/>
     </row>
+    <row r="1476">
+      <c r="A1476" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B1476" t="n">
+        <v>4007.199951171875</v>
+      </c>
+      <c r="C1476" t="n">
+        <v>4115</v>
+      </c>
+      <c r="D1476" t="n">
+        <v>4004.199951171875</v>
+      </c>
+      <c r="E1476" t="n">
+        <v>4084.800048828125</v>
+      </c>
+      <c r="F1476" t="n">
+        <v>144867</v>
+      </c>
+      <c r="G1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1476" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1476"/>
+  <dimension ref="A1:I1477"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40309,6 +40309,33 @@
       </c>
       <c r="I1476" t="inlineStr"/>
     </row>
+    <row r="1477">
+      <c r="A1477" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B1477" t="n">
+        <v>4124</v>
+      </c>
+      <c r="C1477" t="n">
+        <v>4155</v>
+      </c>
+      <c r="D1477" t="n">
+        <v>4121.5</v>
+      </c>
+      <c r="E1477" t="n">
+        <v>4131.2001953125</v>
+      </c>
+      <c r="F1477" t="n">
+        <v>125214</v>
+      </c>
+      <c r="G1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1477" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1477"/>
+  <dimension ref="A1:I1478"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40336,6 +40336,33 @@
       </c>
       <c r="I1477" t="inlineStr"/>
     </row>
+    <row r="1478">
+      <c r="A1478" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B1478" t="n">
+        <v>4132.2001953125</v>
+      </c>
+      <c r="C1478" t="n">
+        <v>4151.5</v>
+      </c>
+      <c r="D1478" t="n">
+        <v>4104.39990234375</v>
+      </c>
+      <c r="E1478" t="n">
+        <v>4136.7001953125</v>
+      </c>
+      <c r="F1478" t="n">
+        <v>117051</v>
+      </c>
+      <c r="G1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1478" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1478"/>
+  <dimension ref="A1:I1479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40363,6 +40363,33 @@
       </c>
       <c r="I1478" t="inlineStr"/>
     </row>
+    <row r="1479">
+      <c r="A1479" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B1479" t="n">
+        <v>4202.39990234375</v>
+      </c>
+      <c r="C1479" t="n">
+        <v>4250</v>
+      </c>
+      <c r="D1479" t="n">
+        <v>4183.2001953125</v>
+      </c>
+      <c r="E1479" t="n">
+        <v>4215.60009765625</v>
+      </c>
+      <c r="F1479" t="n">
+        <v>155165</v>
+      </c>
+      <c r="G1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1479" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1479"/>
+  <dimension ref="A1:I1480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40390,6 +40390,33 @@
       </c>
       <c r="I1479" t="inlineStr"/>
     </row>
+    <row r="1480">
+      <c r="A1480" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B1480" t="n">
+        <v>4174.89990234375</v>
+      </c>
+      <c r="C1480" t="n">
+        <v>4215.10009765625</v>
+      </c>
+      <c r="D1480" t="n">
+        <v>4038.300048828125</v>
+      </c>
+      <c r="E1480" t="n">
+        <v>4053.10009765625</v>
+      </c>
+      <c r="F1480" t="n">
+        <v>206975</v>
+      </c>
+      <c r="G1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1480" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -40401,13 +40401,13 @@
         <v>4215.10009765625</v>
       </c>
       <c r="D1480" t="n">
-        <v>4038.300048828125</v>
+        <v>4032.60009765625</v>
       </c>
       <c r="E1480" t="n">
-        <v>4053.10009765625</v>
+        <v>4094.199951171875</v>
       </c>
       <c r="F1480" t="n">
-        <v>206975</v>
+        <v>332490</v>
       </c>
       <c r="G1480" t="n">
         <v>0</v>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1480"/>
+  <dimension ref="A1:I1481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40417,6 +40417,33 @@
       </c>
       <c r="I1480" t="inlineStr"/>
     </row>
+    <row r="1481">
+      <c r="A1481" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B1481" t="n">
+        <v>4084.39990234375</v>
+      </c>
+      <c r="C1481" t="n">
+        <v>4107.60009765625</v>
+      </c>
+      <c r="D1481" t="n">
+        <v>4051.10009765625</v>
+      </c>
+      <c r="E1481" t="n">
+        <v>4077.300048828125</v>
+      </c>
+      <c r="F1481" t="n">
+        <v>132294</v>
+      </c>
+      <c r="G1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1481" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1481"/>
+  <dimension ref="A1:I1482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40444,6 +40444,33 @@
       </c>
       <c r="I1481" t="inlineStr"/>
     </row>
+    <row r="1482">
+      <c r="A1482" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B1482" t="n">
+        <v>4045.60009765625</v>
+      </c>
+      <c r="C1482" t="n">
+        <v>4081</v>
+      </c>
+      <c r="D1482" t="n">
+        <v>3997.39990234375</v>
+      </c>
+      <c r="E1482" t="n">
+        <v>4075.10009765625</v>
+      </c>
+      <c r="F1482" t="n">
+        <v>146402</v>
+      </c>
+      <c r="G1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1482" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1482"/>
+  <dimension ref="A1:I1483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40471,6 +40471,33 @@
       </c>
       <c r="I1482" t="inlineStr"/>
     </row>
+    <row r="1483">
+      <c r="A1483" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B1483" t="n">
+        <v>4067.800048828125</v>
+      </c>
+      <c r="C1483" t="n">
+        <v>4121</v>
+      </c>
+      <c r="D1483" t="n">
+        <v>4056.10009765625</v>
+      </c>
+      <c r="E1483" t="n">
+        <v>4115.7001953125</v>
+      </c>
+      <c r="F1483" t="n">
+        <v>110172</v>
+      </c>
+      <c r="G1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1483" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1483"/>
+  <dimension ref="A1:I1484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40498,6 +40498,33 @@
       </c>
       <c r="I1483" t="inlineStr"/>
     </row>
+    <row r="1484">
+      <c r="A1484" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B1484" t="n">
+        <v>4079.89990234375</v>
+      </c>
+      <c r="C1484" t="n">
+        <v>4109.60009765625</v>
+      </c>
+      <c r="D1484" t="n">
+        <v>4034</v>
+      </c>
+      <c r="E1484" t="n">
+        <v>4077.5</v>
+      </c>
+      <c r="F1484" t="n">
+        <v>153724</v>
+      </c>
+      <c r="G1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1484" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1484"/>
+  <dimension ref="A1:I1485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40525,6 +40525,33 @@
       </c>
       <c r="I1484" t="inlineStr"/>
     </row>
+    <row r="1485">
+      <c r="A1485" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B1485" t="n">
+        <v>4074.89990234375</v>
+      </c>
+      <c r="C1485" t="n">
+        <v>4089.39990234375</v>
+      </c>
+      <c r="D1485" t="n">
+        <v>4018.10009765625</v>
+      </c>
+      <c r="E1485" t="n">
+        <v>4062.699951171875</v>
+      </c>
+      <c r="F1485" t="n">
+        <v>143928</v>
+      </c>
+      <c r="G1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1485" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -40533,16 +40533,16 @@
         <v>4074.89990234375</v>
       </c>
       <c r="C1485" t="n">
-        <v>4089.39990234375</v>
+        <v>4101</v>
       </c>
       <c r="D1485" t="n">
         <v>4018.10009765625</v>
       </c>
       <c r="E1485" t="n">
-        <v>4062.699951171875</v>
+        <v>4079.5</v>
       </c>
       <c r="F1485" t="n">
-        <v>143928</v>
+        <v>253026</v>
       </c>
       <c r="G1485" t="n">
         <v>0</v>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1485"/>
+  <dimension ref="A1:I1486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40552,6 +40552,33 @@
       </c>
       <c r="I1485" t="inlineStr"/>
     </row>
+    <row r="1486">
+      <c r="A1486" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B1486" t="n">
+        <v>4069.199951171875</v>
+      </c>
+      <c r="C1486" t="n">
+        <v>4083.800048828125</v>
+      </c>
+      <c r="D1486" t="n">
+        <v>4036.39990234375</v>
+      </c>
+      <c r="E1486" t="n">
+        <v>4074.10009765625</v>
+      </c>
+      <c r="F1486" t="n">
+        <v>105953</v>
+      </c>
+      <c r="G1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1486" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1486"/>
+  <dimension ref="A1:I1487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40579,6 +40579,33 @@
       </c>
       <c r="I1486" t="inlineStr"/>
     </row>
+    <row r="1487">
+      <c r="A1487" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B1487" t="n">
+        <v>4133.5</v>
+      </c>
+      <c r="C1487" t="n">
+        <v>4152</v>
+      </c>
+      <c r="D1487" t="n">
+        <v>4106.7001953125</v>
+      </c>
+      <c r="E1487" t="n">
+        <v>4163.60009765625</v>
+      </c>
+      <c r="F1487" t="n">
+        <v>128746</v>
+      </c>
+      <c r="G1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1487" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1487"/>
+  <dimension ref="A1:I1488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40606,6 +40606,33 @@
       </c>
       <c r="I1487" t="inlineStr"/>
     </row>
+    <row r="1488">
+      <c r="A1488" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B1488" t="n">
+        <v>4128.60009765625</v>
+      </c>
+      <c r="C1488" t="n">
+        <v>4171</v>
+      </c>
+      <c r="D1488" t="n">
+        <v>4127.5</v>
+      </c>
+      <c r="E1488" t="n">
+        <v>4187.39990234375</v>
+      </c>
+      <c r="F1488" t="n">
+        <v>106307</v>
+      </c>
+      <c r="G1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1488" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1488"/>
+  <dimension ref="A1:I1489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40633,6 +40633,33 @@
       </c>
       <c r="I1488" t="inlineStr"/>
     </row>
+    <row r="1489">
+      <c r="A1489" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B1489" t="n">
+        <v>4163.39990234375</v>
+      </c>
+      <c r="C1489" t="n">
+        <v>4164</v>
+      </c>
+      <c r="D1489" t="n">
+        <v>4140</v>
+      </c>
+      <c r="E1489" t="n">
+        <v>4190.2998046875</v>
+      </c>
+      <c r="F1489" t="n">
+        <v>61164</v>
+      </c>
+      <c r="G1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1489" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1489"/>
+  <dimension ref="A1:I1490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40660,6 +40660,33 @@
       </c>
       <c r="I1489" t="inlineStr"/>
     </row>
+    <row r="1490">
+      <c r="A1490" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B1490" t="n">
+        <v>4163.39990234375</v>
+      </c>
+      <c r="C1490" t="n">
+        <v>4237.5</v>
+      </c>
+      <c r="D1490" t="n">
+        <v>4140</v>
+      </c>
+      <c r="E1490" t="n">
+        <v>4236</v>
+      </c>
+      <c r="F1490" t="n">
+        <v>101901</v>
+      </c>
+      <c r="G1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1490" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -40668,16 +40668,16 @@
         <v>4163.39990234375</v>
       </c>
       <c r="C1490" t="n">
-        <v>4237.5</v>
+        <v>4223.89990234375</v>
       </c>
       <c r="D1490" t="n">
-        <v>4140</v>
+        <v>4174.60009765625</v>
       </c>
       <c r="E1490" t="n">
-        <v>4236</v>
+        <v>4218.2998046875</v>
       </c>
       <c r="F1490" t="n">
-        <v>101901</v>
+        <v>149887</v>
       </c>
       <c r="G1490" t="n">
         <v>0</v>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1490"/>
+  <dimension ref="A1:I1491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40687,6 +40687,33 @@
       </c>
       <c r="I1490" t="inlineStr"/>
     </row>
+    <row r="1491">
+      <c r="A1491" s="2" t="n">
+        <v>45992</v>
+      </c>
+      <c r="B1491" t="n">
+        <v>4218.5</v>
+      </c>
+      <c r="C1491" t="n">
+        <v>4299.60009765625</v>
+      </c>
+      <c r="D1491" t="n">
+        <v>4241.10009765625</v>
+      </c>
+      <c r="E1491" t="n">
+        <v>4263</v>
+      </c>
+      <c r="F1491" t="n">
+        <v>141037</v>
+      </c>
+      <c r="G1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1491" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1491"/>
+  <dimension ref="A1:I1492"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40714,6 +40714,33 @@
       </c>
       <c r="I1491" t="inlineStr"/>
     </row>
+    <row r="1492">
+      <c r="A1492" s="2" t="n">
+        <v>45993</v>
+      </c>
+      <c r="B1492" t="n">
+        <v>4230.5</v>
+      </c>
+      <c r="C1492" t="n">
+        <v>4230.5</v>
+      </c>
+      <c r="D1492" t="n">
+        <v>4182.10009765625</v>
+      </c>
+      <c r="E1492" t="n">
+        <v>4255.2001953125</v>
+      </c>
+      <c r="F1492" t="n">
+        <v>116974</v>
+      </c>
+      <c r="G1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1492" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1492"/>
+  <dimension ref="A1:I1493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40741,6 +40741,33 @@
       </c>
       <c r="I1492" t="inlineStr"/>
     </row>
+    <row r="1493">
+      <c r="A1493" s="2" t="n">
+        <v>45994</v>
+      </c>
+      <c r="B1493" t="n">
+        <v>4215.7001953125</v>
+      </c>
+      <c r="C1493" t="n">
+        <v>4273.2998046875</v>
+      </c>
+      <c r="D1493" t="n">
+        <v>4225.10009765625</v>
+      </c>
+      <c r="E1493" t="n">
+        <v>4265.7001953125</v>
+      </c>
+      <c r="F1493" t="n">
+        <v>104077</v>
+      </c>
+      <c r="G1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1493" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1493"/>
+  <dimension ref="A1:I1494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40768,6 +40768,33 @@
       </c>
       <c r="I1493" t="inlineStr"/>
     </row>
+    <row r="1494">
+      <c r="A1494" s="2" t="n">
+        <v>45995</v>
+      </c>
+      <c r="B1494" t="n">
+        <v>4211</v>
+      </c>
+      <c r="C1494" t="n">
+        <v>4246.89990234375</v>
+      </c>
+      <c r="D1494" t="n">
+        <v>4203.2998046875</v>
+      </c>
+      <c r="E1494" t="n">
+        <v>4234.7001953125</v>
+      </c>
+      <c r="F1494" t="n">
+        <v>93965</v>
+      </c>
+      <c r="G1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1494" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1494"/>
+  <dimension ref="A1:I1495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40795,6 +40795,33 @@
       </c>
       <c r="I1494" t="inlineStr"/>
     </row>
+    <row r="1495">
+      <c r="A1495" s="2" t="n">
+        <v>45996</v>
+      </c>
+      <c r="B1495" t="n">
+        <v>4204.10009765625</v>
+      </c>
+      <c r="C1495" t="n">
+        <v>4270.5</v>
+      </c>
+      <c r="D1495" t="n">
+        <v>4224.60009765625</v>
+      </c>
+      <c r="E1495" t="n">
+        <v>4261.89990234375</v>
+      </c>
+      <c r="F1495" t="n">
+        <v>83770</v>
+      </c>
+      <c r="G1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1495" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -40803,16 +40803,16 @@
         <v>4204.10009765625</v>
       </c>
       <c r="C1495" t="n">
-        <v>4270.5</v>
+        <v>4290.5</v>
       </c>
       <c r="D1495" t="n">
-        <v>4224.60009765625</v>
+        <v>4221.39990234375</v>
       </c>
       <c r="E1495" t="n">
-        <v>4261.89990234375</v>
+        <v>4227.7001953125</v>
       </c>
       <c r="F1495" t="n">
-        <v>83770</v>
+        <v>190889</v>
       </c>
       <c r="G1495" t="n">
         <v>0</v>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1495"/>
+  <dimension ref="A1:I1496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40822,6 +40822,33 @@
       </c>
       <c r="I1495" t="inlineStr"/>
     </row>
+    <row r="1496">
+      <c r="A1496" s="2" t="n">
+        <v>45999</v>
+      </c>
+      <c r="B1496" t="n">
+        <v>4205.5</v>
+      </c>
+      <c r="C1496" t="n">
+        <v>4215.7998046875</v>
+      </c>
+      <c r="D1496" t="n">
+        <v>4202.5</v>
+      </c>
+      <c r="E1496" t="n">
+        <v>4232.10009765625</v>
+      </c>
+      <c r="F1496" t="n">
+        <v>72727</v>
+      </c>
+      <c r="G1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1496" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1496"/>
+  <dimension ref="A1:I1497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40849,6 +40849,33 @@
       </c>
       <c r="I1496" t="inlineStr"/>
     </row>
+    <row r="1497">
+      <c r="A1497" s="2" t="n">
+        <v>46000</v>
+      </c>
+      <c r="B1497" t="n">
+        <v>4219.60009765625</v>
+      </c>
+      <c r="C1497" t="n">
+        <v>4242.2998046875</v>
+      </c>
+      <c r="D1497" t="n">
+        <v>4197.7998046875</v>
+      </c>
+      <c r="E1497" t="n">
+        <v>4228.5</v>
+      </c>
+      <c r="F1497" t="n">
+        <v>102151</v>
+      </c>
+      <c r="G1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1497" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1497"/>
+  <dimension ref="A1:I1498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40876,6 +40876,33 @@
       </c>
       <c r="I1497" t="inlineStr"/>
     </row>
+    <row r="1498">
+      <c r="A1498" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B1498" t="n">
+        <v>4237.5</v>
+      </c>
+      <c r="C1498" t="n">
+        <v>4247.89990234375</v>
+      </c>
+      <c r="D1498" t="n">
+        <v>4215.2998046875</v>
+      </c>
+      <c r="E1498" t="n">
+        <v>4221.2001953125</v>
+      </c>
+      <c r="F1498" t="n">
+        <v>73642</v>
+      </c>
+      <c r="G1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1498" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1498"/>
+  <dimension ref="A1:I1499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40903,6 +40903,33 @@
       </c>
       <c r="I1498" t="inlineStr"/>
     </row>
+    <row r="1499">
+      <c r="A1499" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="B1499" t="n">
+        <v>4224</v>
+      </c>
+      <c r="C1499" t="n">
+        <v>4230</v>
+      </c>
+      <c r="D1499" t="n">
+        <v>4214.2998046875</v>
+      </c>
+      <c r="E1499" t="n">
+        <v>4264.7998046875</v>
+      </c>
+      <c r="F1499" t="n">
+        <v>100093</v>
+      </c>
+      <c r="G1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1499" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1499"/>
+  <dimension ref="A1:I1500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40930,6 +40930,33 @@
       </c>
       <c r="I1499" t="inlineStr"/>
     </row>
+    <row r="1500">
+      <c r="A1500" s="2" t="n">
+        <v>46003</v>
+      </c>
+      <c r="B1500" t="n">
+        <v>4276.39990234375</v>
+      </c>
+      <c r="C1500" t="n">
+        <v>4381.39990234375</v>
+      </c>
+      <c r="D1500" t="n">
+        <v>4295.5</v>
+      </c>
+      <c r="E1500" t="n">
+        <v>4368.7001953125</v>
+      </c>
+      <c r="F1500" t="n">
+        <v>129371</v>
+      </c>
+      <c r="G1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1500" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -40935,19 +40935,19 @@
         <v>46003</v>
       </c>
       <c r="B1500" t="n">
-        <v>4276.39990234375</v>
+        <v>4309.10009765625</v>
       </c>
       <c r="C1500" t="n">
-        <v>4381.39990234375</v>
+        <v>4387.7998046875</v>
       </c>
       <c r="D1500" t="n">
-        <v>4295.5</v>
+        <v>4286</v>
       </c>
       <c r="E1500" t="n">
-        <v>4368.7001953125</v>
+        <v>4328.2998046875</v>
       </c>
       <c r="F1500" t="n">
-        <v>129371</v>
+        <v>283739</v>
       </c>
       <c r="G1500" t="n">
         <v>0</v>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1500"/>
+  <dimension ref="A1:I1501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40957,6 +40957,33 @@
       </c>
       <c r="I1500" t="inlineStr"/>
     </row>
+    <row r="1501">
+      <c r="A1501" s="2" t="n">
+        <v>46006</v>
+      </c>
+      <c r="B1501" t="n">
+        <v>4308.2998046875</v>
+      </c>
+      <c r="C1501" t="n">
+        <v>4384.2998046875</v>
+      </c>
+      <c r="D1501" t="n">
+        <v>4324.39990234375</v>
+      </c>
+      <c r="E1501" t="n">
+        <v>4364.60009765625</v>
+      </c>
+      <c r="F1501" t="n">
+        <v>101028</v>
+      </c>
+      <c r="G1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1501" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1501"/>
+  <dimension ref="A1:I1502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40984,6 +40984,33 @@
       </c>
       <c r="I1501" t="inlineStr"/>
     </row>
+    <row r="1502">
+      <c r="A1502" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="B1502" t="n">
+        <v>4270.5</v>
+      </c>
+      <c r="C1502" t="n">
+        <v>4363.39990234375</v>
+      </c>
+      <c r="D1502" t="n">
+        <v>4297.39990234375</v>
+      </c>
+      <c r="E1502" t="n">
+        <v>4357.39990234375</v>
+      </c>
+      <c r="F1502" t="n">
+        <v>121081</v>
+      </c>
+      <c r="G1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1502" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1502"/>
+  <dimension ref="A1:I1503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41011,6 +41011,33 @@
       </c>
       <c r="I1502" t="inlineStr"/>
     </row>
+    <row r="1503">
+      <c r="A1503" s="2" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B1503" t="n">
+        <v>4308.5</v>
+      </c>
+      <c r="C1503" t="n">
+        <v>4378.2001953125</v>
+      </c>
+      <c r="D1503" t="n">
+        <v>4330.7001953125</v>
+      </c>
+      <c r="E1503" t="n">
+        <v>4365.39990234375</v>
+      </c>
+      <c r="F1503" t="n">
+        <v>107785</v>
+      </c>
+      <c r="G1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1503" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1503"/>
+  <dimension ref="A1:I1504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41038,6 +41038,33 @@
       </c>
       <c r="I1503" t="inlineStr"/>
     </row>
+    <row r="1504">
+      <c r="A1504" s="2" t="n">
+        <v>46009</v>
+      </c>
+      <c r="B1504" t="n">
+        <v>4371.5</v>
+      </c>
+      <c r="C1504" t="n">
+        <v>4375.7001953125</v>
+      </c>
+      <c r="D1504" t="n">
+        <v>4346.60009765625</v>
+      </c>
+      <c r="E1504" t="n">
+        <v>4358.5</v>
+      </c>
+      <c r="F1504" t="n">
+        <v>87353</v>
+      </c>
+      <c r="G1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1504" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1504"/>
+  <dimension ref="A1:I1505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41065,6 +41065,33 @@
       </c>
       <c r="I1504" t="inlineStr"/>
     </row>
+    <row r="1505">
+      <c r="A1505" s="2" t="n">
+        <v>46010</v>
+      </c>
+      <c r="B1505" t="n">
+        <v>4363.60009765625</v>
+      </c>
+      <c r="C1505" t="n">
+        <v>4368.39990234375</v>
+      </c>
+      <c r="D1505" t="n">
+        <v>4336.2998046875</v>
+      </c>
+      <c r="E1505" t="n">
+        <v>4365.89990234375</v>
+      </c>
+      <c r="F1505" t="n">
+        <v>76360</v>
+      </c>
+      <c r="G1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1505" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -41073,16 +41073,16 @@
         <v>4363.60009765625</v>
       </c>
       <c r="C1505" t="n">
-        <v>4368.39990234375</v>
+        <v>4389</v>
       </c>
       <c r="D1505" t="n">
         <v>4336.2998046875</v>
       </c>
       <c r="E1505" t="n">
-        <v>4365.89990234375</v>
+        <v>4387.2998046875</v>
       </c>
       <c r="F1505" t="n">
-        <v>76360</v>
+        <v>161163</v>
       </c>
       <c r="G1505" t="n">
         <v>0</v>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1505"/>
+  <dimension ref="A1:I1506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41092,6 +41092,33 @@
       </c>
       <c r="I1505" t="inlineStr"/>
     </row>
+    <row r="1506">
+      <c r="A1506" s="2" t="n">
+        <v>46013</v>
+      </c>
+      <c r="B1506" t="n">
+        <v>4369.89990234375</v>
+      </c>
+      <c r="C1506" t="n">
+        <v>4464.60009765625</v>
+      </c>
+      <c r="D1506" t="n">
+        <v>4367.89990234375</v>
+      </c>
+      <c r="E1506" t="n">
+        <v>4454.60009765625</v>
+      </c>
+      <c r="F1506" t="n">
+        <v>123560</v>
+      </c>
+      <c r="G1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1506" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1506"/>
+  <dimension ref="A1:I1507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41119,6 +41119,33 @@
       </c>
       <c r="I1506" t="inlineStr"/>
     </row>
+    <row r="1507">
+      <c r="A1507" s="2" t="n">
+        <v>46014</v>
+      </c>
+      <c r="B1507" t="n">
+        <v>4481.7998046875</v>
+      </c>
+      <c r="C1507" t="n">
+        <v>4530.7998046875</v>
+      </c>
+      <c r="D1507" t="n">
+        <v>4479.2001953125</v>
+      </c>
+      <c r="E1507" t="n">
+        <v>4481.60009765625</v>
+      </c>
+      <c r="F1507" t="n">
+        <v>135856</v>
+      </c>
+      <c r="G1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1507" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1507"/>
+  <dimension ref="A1:I1508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41146,6 +41146,33 @@
       </c>
       <c r="I1507" t="inlineStr"/>
     </row>
+    <row r="1508">
+      <c r="A1508" s="2" t="n">
+        <v>46015</v>
+      </c>
+      <c r="B1508" t="n">
+        <v>4516.7001953125</v>
+      </c>
+      <c r="C1508" t="n">
+        <v>4555.10009765625</v>
+      </c>
+      <c r="D1508" t="n">
+        <v>4496.5</v>
+      </c>
+      <c r="E1508" t="n">
+        <v>4514.7998046875</v>
+      </c>
+      <c r="F1508" t="n">
+        <v>99494</v>
+      </c>
+      <c r="G1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1508" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -41157,13 +41157,13 @@
         <v>4555.10009765625</v>
       </c>
       <c r="D1508" t="n">
-        <v>4496.5</v>
+        <v>4474.2998046875</v>
       </c>
       <c r="E1508" t="n">
-        <v>4514.7998046875</v>
+        <v>4502.7998046875</v>
       </c>
       <c r="F1508" t="n">
-        <v>99494</v>
+        <v>149923</v>
       </c>
       <c r="G1508" t="n">
         <v>0</v>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1508"/>
+  <dimension ref="A1:I1509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41173,6 +41173,33 @@
       </c>
       <c r="I1508" t="inlineStr"/>
     </row>
+    <row r="1509">
+      <c r="A1509" s="2" t="n">
+        <v>46017</v>
+      </c>
+      <c r="B1509" t="n">
+        <v>4523.5</v>
+      </c>
+      <c r="C1509" t="n">
+        <v>4568.5</v>
+      </c>
+      <c r="D1509" t="n">
+        <v>4518</v>
+      </c>
+      <c r="E1509" t="n">
+        <v>4565.7998046875</v>
+      </c>
+      <c r="F1509" t="n">
+        <v>91179</v>
+      </c>
+      <c r="G1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1509" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -41181,16 +41181,16 @@
         <v>4523.5</v>
       </c>
       <c r="C1509" t="n">
-        <v>4568.5</v>
+        <v>4584</v>
       </c>
       <c r="D1509" t="n">
         <v>4518</v>
       </c>
       <c r="E1509" t="n">
-        <v>4565.7998046875</v>
+        <v>4552.7001953125</v>
       </c>
       <c r="F1509" t="n">
-        <v>91179</v>
+        <v>179107</v>
       </c>
       <c r="G1509" t="n">
         <v>0</v>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1509"/>
+  <dimension ref="A1:I1510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41200,6 +41200,33 @@
       </c>
       <c r="I1509" t="inlineStr"/>
     </row>
+    <row r="1510">
+      <c r="A1510" s="2" t="n">
+        <v>46020</v>
+      </c>
+      <c r="B1510" t="n">
+        <v>4568</v>
+      </c>
+      <c r="C1510" t="n">
+        <v>4581.2998046875</v>
+      </c>
+      <c r="D1510" t="n">
+        <v>4385.2998046875</v>
+      </c>
+      <c r="E1510" t="n">
+        <v>4401</v>
+      </c>
+      <c r="F1510" t="n">
+        <v>193645</v>
+      </c>
+      <c r="G1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1510" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1510"/>
+  <dimension ref="A1:I1511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41227,6 +41227,33 @@
       </c>
       <c r="I1510" t="inlineStr"/>
     </row>
+    <row r="1511">
+      <c r="A1511" s="2" t="n">
+        <v>46021</v>
+      </c>
+      <c r="B1511" t="n">
+        <v>4350.2998046875</v>
+      </c>
+      <c r="C1511" t="n">
+        <v>4420.5</v>
+      </c>
+      <c r="D1511" t="n">
+        <v>4338.7998046875</v>
+      </c>
+      <c r="E1511" t="n">
+        <v>4397</v>
+      </c>
+      <c r="F1511" t="n">
+        <v>106938</v>
+      </c>
+      <c r="G1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1511" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1511"/>
+  <dimension ref="A1:I1512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41254,6 +41254,33 @@
       </c>
       <c r="I1511" t="inlineStr"/>
     </row>
+    <row r="1512">
+      <c r="A1512" s="2" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B1512" t="n">
+        <v>4353</v>
+      </c>
+      <c r="C1512" t="n">
+        <v>4384.89990234375</v>
+      </c>
+      <c r="D1512" t="n">
+        <v>4284.2998046875</v>
+      </c>
+      <c r="E1512" t="n">
+        <v>4360.2998046875</v>
+      </c>
+      <c r="F1512" t="n">
+        <v>112672</v>
+      </c>
+      <c r="G1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1512" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -41268,10 +41268,10 @@
         <v>4284.2998046875</v>
       </c>
       <c r="E1512" t="n">
-        <v>4360.2998046875</v>
+        <v>4332.10009765625</v>
       </c>
       <c r="F1512" t="n">
-        <v>112672</v>
+        <v>159687</v>
       </c>
       <c r="G1512" t="n">
         <v>0</v>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1512"/>
+  <dimension ref="A1:I1513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41281,6 +41281,33 @@
       </c>
       <c r="I1512" t="inlineStr"/>
     </row>
+    <row r="1513">
+      <c r="A1513" s="2" t="n">
+        <v>46024</v>
+      </c>
+      <c r="B1513" t="n">
+        <v>4340</v>
+      </c>
+      <c r="C1513" t="n">
+        <v>4414.7998046875</v>
+      </c>
+      <c r="D1513" t="n">
+        <v>4337.2998046875</v>
+      </c>
+      <c r="E1513" t="n">
+        <v>4363.7001953125</v>
+      </c>
+      <c r="F1513" t="n">
+        <v>78700</v>
+      </c>
+      <c r="G1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1513" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -41292,13 +41292,13 @@
         <v>4414.7998046875</v>
       </c>
       <c r="D1513" t="n">
-        <v>4337.2998046875</v>
+        <v>4319.7001953125</v>
       </c>
       <c r="E1513" t="n">
-        <v>4363.7001953125</v>
+        <v>4329.60009765625</v>
       </c>
       <c r="F1513" t="n">
-        <v>78700</v>
+        <v>149435</v>
       </c>
       <c r="G1513" t="n">
         <v>0</v>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1513"/>
+  <dimension ref="A1:I1514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41308,6 +41308,33 @@
       </c>
       <c r="I1513" t="inlineStr"/>
     </row>
+    <row r="1514">
+      <c r="A1514" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="B1514" t="n">
+        <v>4368.2998046875</v>
+      </c>
+      <c r="C1514" t="n">
+        <v>4451.7001953125</v>
+      </c>
+      <c r="D1514" t="n">
+        <v>4354.60009765625</v>
+      </c>
+      <c r="E1514" t="n">
+        <v>4434.60009765625</v>
+      </c>
+      <c r="F1514" t="n">
+        <v>136483</v>
+      </c>
+      <c r="G1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1514" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1514"/>
+  <dimension ref="A1:I1515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41335,6 +41335,33 @@
       </c>
       <c r="I1514" t="inlineStr"/>
     </row>
+    <row r="1515">
+      <c r="A1515" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="B1515" t="n">
+        <v>4459.7998046875</v>
+      </c>
+      <c r="C1515" t="n">
+        <v>4494</v>
+      </c>
+      <c r="D1515" t="n">
+        <v>4437.89990234375</v>
+      </c>
+      <c r="E1515" t="n">
+        <v>4491.2001953125</v>
+      </c>
+      <c r="F1515" t="n">
+        <v>94495</v>
+      </c>
+      <c r="G1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1515" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1515"/>
+  <dimension ref="A1:I1516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41362,6 +41362,33 @@
       </c>
       <c r="I1515" t="inlineStr"/>
     </row>
+    <row r="1516">
+      <c r="A1516" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B1516" t="n">
+        <v>4505.39990234375</v>
+      </c>
+      <c r="C1516" t="n">
+        <v>4512.39990234375</v>
+      </c>
+      <c r="D1516" t="n">
+        <v>4436.60009765625</v>
+      </c>
+      <c r="E1516" t="n">
+        <v>4454</v>
+      </c>
+      <c r="F1516" t="n">
+        <v>114469</v>
+      </c>
+      <c r="G1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1516" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1516"/>
+  <dimension ref="A1:I1517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41389,6 +41389,33 @@
       </c>
       <c r="I1516" t="inlineStr"/>
     </row>
+    <row r="1517">
+      <c r="A1517" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B1517" t="n">
+        <v>4467.10009765625</v>
+      </c>
+      <c r="C1517" t="n">
+        <v>4475.2001953125</v>
+      </c>
+      <c r="D1517" t="n">
+        <v>4415</v>
+      </c>
+      <c r="E1517" t="n">
+        <v>4437.5</v>
+      </c>
+      <c r="F1517" t="n">
+        <v>95953</v>
+      </c>
+      <c r="G1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1517" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1517"/>
+  <dimension ref="A1:I1518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41416,6 +41416,33 @@
       </c>
       <c r="I1517" t="inlineStr"/>
     </row>
+    <row r="1518">
+      <c r="A1518" s="2" t="n">
+        <v>46031</v>
+      </c>
+      <c r="B1518" t="n">
+        <v>4489.2998046875</v>
+      </c>
+      <c r="C1518" t="n">
+        <v>4507.7998046875</v>
+      </c>
+      <c r="D1518" t="n">
+        <v>4461.7998046875</v>
+      </c>
+      <c r="E1518" t="n">
+        <v>4504.7998046875</v>
+      </c>
+      <c r="F1518" t="n">
+        <v>92148</v>
+      </c>
+      <c r="G1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1518" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -41424,16 +41424,16 @@
         <v>4489.2998046875</v>
       </c>
       <c r="C1518" t="n">
-        <v>4507.7998046875</v>
+        <v>4527</v>
       </c>
       <c r="D1518" t="n">
         <v>4461.7998046875</v>
       </c>
       <c r="E1518" t="n">
-        <v>4504.7998046875</v>
+        <v>4500.89990234375</v>
       </c>
       <c r="F1518" t="n">
-        <v>92148</v>
+        <v>198002</v>
       </c>
       <c r="G1518" t="n">
         <v>0</v>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1518"/>
+  <dimension ref="A1:I1519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41443,6 +41443,33 @@
       </c>
       <c r="I1518" t="inlineStr"/>
     </row>
+    <row r="1519">
+      <c r="A1519" s="2" t="n">
+        <v>46034</v>
+      </c>
+      <c r="B1519" t="n">
+        <v>4529.10009765625</v>
+      </c>
+      <c r="C1519" t="n">
+        <v>4630.7998046875</v>
+      </c>
+      <c r="D1519" t="n">
+        <v>4520.7998046875</v>
+      </c>
+      <c r="E1519" t="n">
+        <v>4614.5</v>
+      </c>
+      <c r="F1519" t="n">
+        <v>165977</v>
+      </c>
+      <c r="G1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1519" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1519"/>
+  <dimension ref="A1:I1520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41470,6 +41470,33 @@
       </c>
       <c r="I1519" t="inlineStr"/>
     </row>
+    <row r="1520">
+      <c r="A1520" s="2" t="n">
+        <v>46035</v>
+      </c>
+      <c r="B1520" t="n">
+        <v>4610</v>
+      </c>
+      <c r="C1520" t="n">
+        <v>4632</v>
+      </c>
+      <c r="D1520" t="n">
+        <v>4582.7998046875</v>
+      </c>
+      <c r="E1520" t="n">
+        <v>4628.2998046875</v>
+      </c>
+      <c r="F1520" t="n">
+        <v>119277</v>
+      </c>
+      <c r="G1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1520" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1520"/>
+  <dimension ref="A1:I1521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41497,6 +41497,33 @@
       </c>
       <c r="I1520" t="inlineStr"/>
     </row>
+    <row r="1521">
+      <c r="A1521" s="2" t="n">
+        <v>46036</v>
+      </c>
+      <c r="B1521" t="n">
+        <v>4594.2998046875</v>
+      </c>
+      <c r="C1521" t="n">
+        <v>4650.10009765625</v>
+      </c>
+      <c r="D1521" t="n">
+        <v>4594.2998046875</v>
+      </c>
+      <c r="E1521" t="n">
+        <v>4628</v>
+      </c>
+      <c r="F1521" t="n">
+        <v>131184</v>
+      </c>
+      <c r="G1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1521" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1521"/>
+  <dimension ref="A1:I1522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41524,6 +41524,33 @@
       </c>
       <c r="I1521" t="inlineStr"/>
     </row>
+    <row r="1522">
+      <c r="A1522" s="2" t="n">
+        <v>46037</v>
+      </c>
+      <c r="B1522" t="n">
+        <v>4635.7001953125</v>
+      </c>
+      <c r="C1522" t="n">
+        <v>4637.2001953125</v>
+      </c>
+      <c r="D1522" t="n">
+        <v>4584</v>
+      </c>
+      <c r="E1522" t="n">
+        <v>4611.2998046875</v>
+      </c>
+      <c r="F1522" t="n">
+        <v>143544</v>
+      </c>
+      <c r="G1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1522" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1522"/>
+  <dimension ref="A1:I1523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41551,6 +41551,33 @@
       </c>
       <c r="I1522" t="inlineStr"/>
     </row>
+    <row r="1523">
+      <c r="A1523" s="2" t="n">
+        <v>46038</v>
+      </c>
+      <c r="B1523" t="n">
+        <v>4621.60009765625</v>
+      </c>
+      <c r="C1523" t="n">
+        <v>4625.5</v>
+      </c>
+      <c r="D1523" t="n">
+        <v>4586</v>
+      </c>
+      <c r="E1523" t="n">
+        <v>4609.60009765625</v>
+      </c>
+      <c r="F1523" t="n">
+        <v>111785</v>
+      </c>
+      <c r="G1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1523" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -41562,13 +41562,13 @@
         <v>4625.5</v>
       </c>
       <c r="D1523" t="n">
-        <v>4586</v>
+        <v>4539.10009765625</v>
       </c>
       <c r="E1523" t="n">
-        <v>4609.60009765625</v>
+        <v>4595.39990234375</v>
       </c>
       <c r="F1523" t="n">
-        <v>111785</v>
+        <v>243413</v>
       </c>
       <c r="G1523" t="n">
         <v>0</v>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1523"/>
+  <dimension ref="A1:I1524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41578,6 +41578,33 @@
       </c>
       <c r="I1523" t="inlineStr"/>
     </row>
+    <row r="1524">
+      <c r="A1524" s="2" t="n">
+        <v>46041</v>
+      </c>
+      <c r="B1524" t="n">
+        <v>4633.7001953125</v>
+      </c>
+      <c r="C1524" t="n">
+        <v>4698</v>
+      </c>
+      <c r="D1524" t="n">
+        <v>4622.2001953125</v>
+      </c>
+      <c r="E1524" t="n">
+        <v>4671.7001953125</v>
+      </c>
+      <c r="F1524" t="n">
+        <v>118714</v>
+      </c>
+      <c r="G1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1524" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1524"/>
+  <dimension ref="A1:I1525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41605,6 +41605,33 @@
       </c>
       <c r="I1524" t="inlineStr"/>
     </row>
+    <row r="1525">
+      <c r="A1525" s="2" t="n">
+        <v>46042</v>
+      </c>
+      <c r="B1525" t="n">
+        <v>4633.7001953125</v>
+      </c>
+      <c r="C1525" t="n">
+        <v>4756.60009765625</v>
+      </c>
+      <c r="D1525" t="n">
+        <v>4622.2001953125</v>
+      </c>
+      <c r="E1525" t="n">
+        <v>4746.7001953125</v>
+      </c>
+      <c r="F1525" t="n">
+        <v>302081</v>
+      </c>
+      <c r="G1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1525" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1526"/>
+  <dimension ref="A1:I1527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41647,6 +41647,33 @@
       </c>
       <c r="I1526" t="inlineStr"/>
     </row>
+    <row r="1527">
+      <c r="A1527" s="1" t="n">
+        <v>46045</v>
+      </c>
+      <c r="B1527" t="n">
+        <v>4940</v>
+      </c>
+      <c r="C1527" t="n">
+        <v>4970</v>
+      </c>
+      <c r="D1527" t="n">
+        <v>4901.2001953125</v>
+      </c>
+      <c r="E1527" t="n">
+        <v>4949.39990234375</v>
+      </c>
+      <c r="F1527" t="n">
+        <v>152264</v>
+      </c>
+      <c r="G1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1527" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -41655,16 +41655,16 @@
         <v>4940</v>
       </c>
       <c r="C1527" t="n">
-        <v>4970</v>
+        <v>4991.39990234375</v>
       </c>
       <c r="D1527" t="n">
         <v>4901.2001953125</v>
       </c>
       <c r="E1527" t="n">
-        <v>4949.39990234375</v>
+        <v>4979.7001953125</v>
       </c>
       <c r="F1527" t="n">
-        <v>152264</v>
+        <v>273667</v>
       </c>
       <c r="G1527" t="n">
         <v>0</v>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1527"/>
+  <dimension ref="A1:I1528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41674,6 +41674,33 @@
       </c>
       <c r="I1527" t="inlineStr"/>
     </row>
+    <row r="1528">
+      <c r="A1528" s="1" t="n">
+        <v>46048</v>
+      </c>
+      <c r="B1528" t="n">
+        <v>5013.39990234375</v>
+      </c>
+      <c r="C1528" t="n">
+        <v>5107.89990234375</v>
+      </c>
+      <c r="D1528" t="n">
+        <v>5002</v>
+      </c>
+      <c r="E1528" t="n">
+        <v>5079.39990234375</v>
+      </c>
+      <c r="F1528" t="n">
+        <v>224804</v>
+      </c>
+      <c r="G1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1528" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1528"/>
+  <dimension ref="A1:I1529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41701,6 +41701,33 @@
       </c>
       <c r="I1528" t="inlineStr"/>
     </row>
+    <row r="1529">
+      <c r="A1529" s="1" t="n">
+        <v>46049</v>
+      </c>
+      <c r="B1529" t="n">
+        <v>5005.5</v>
+      </c>
+      <c r="C1529" t="n">
+        <v>5097.2998046875</v>
+      </c>
+      <c r="D1529" t="n">
+        <v>5004.5</v>
+      </c>
+      <c r="E1529" t="n">
+        <v>5068.7998046875</v>
+      </c>
+      <c r="F1529" t="n">
+        <v>161862</v>
+      </c>
+      <c r="G1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1529" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1529"/>
+  <dimension ref="A1:I1530"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41728,6 +41728,33 @@
       </c>
       <c r="I1529" t="inlineStr"/>
     </row>
+    <row r="1530">
+      <c r="A1530" s="1" t="n">
+        <v>46050</v>
+      </c>
+      <c r="B1530" t="n">
+        <v>5179</v>
+      </c>
+      <c r="C1530" t="n">
+        <v>5345</v>
+      </c>
+      <c r="D1530" t="n">
+        <v>5193.60009765625</v>
+      </c>
+      <c r="E1530" t="n">
+        <v>5308.2998046875</v>
+      </c>
+      <c r="F1530" t="n">
+        <v>209002</v>
+      </c>
+      <c r="G1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1530" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1530"/>
+  <dimension ref="A1:I1531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41755,6 +41755,33 @@
       </c>
       <c r="I1530" t="inlineStr"/>
     </row>
+    <row r="1531">
+      <c r="A1531" s="1" t="n">
+        <v>46051</v>
+      </c>
+      <c r="B1531" t="n">
+        <v>5449.89990234375</v>
+      </c>
+      <c r="C1531" t="n">
+        <v>5626.7998046875</v>
+      </c>
+      <c r="D1531" t="n">
+        <v>5449.39990234375</v>
+      </c>
+      <c r="E1531" t="n">
+        <v>5532.10009765625</v>
+      </c>
+      <c r="F1531" t="n">
+        <v>299616</v>
+      </c>
+      <c r="G1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1531" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1531"/>
+  <dimension ref="A1:I1532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41782,6 +41782,33 @@
       </c>
       <c r="I1531" t="inlineStr"/>
     </row>
+    <row r="1532">
+      <c r="A1532" s="1" t="n">
+        <v>46052</v>
+      </c>
+      <c r="B1532" t="n">
+        <v>5410</v>
+      </c>
+      <c r="C1532" t="n">
+        <v>5480.2001953125</v>
+      </c>
+      <c r="D1532" t="n">
+        <v>4962.7001953125</v>
+      </c>
+      <c r="E1532" t="n">
+        <v>5108.7001953125</v>
+      </c>
+      <c r="F1532" t="n">
+        <v>262513</v>
+      </c>
+      <c r="G1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1532" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -41796,10 +41796,10 @@
         <v>4962.7001953125</v>
       </c>
       <c r="E1532" t="n">
-        <v>5108.7001953125</v>
+        <v>5067.5</v>
       </c>
       <c r="F1532" t="n">
-        <v>262513</v>
+        <v>289631</v>
       </c>
       <c r="G1532" t="n">
         <v>0</v>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1532"/>
+  <dimension ref="A1:I1533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41809,6 +41809,33 @@
       </c>
       <c r="I1532" t="inlineStr"/>
     </row>
+    <row r="1533">
+      <c r="A1533" s="1" t="n">
+        <v>46056</v>
+      </c>
+      <c r="B1533" t="n">
+        <v>4691</v>
+      </c>
+      <c r="C1533" t="n">
+        <v>4977.7001953125</v>
+      </c>
+      <c r="D1533" t="n">
+        <v>4690.2001953125</v>
+      </c>
+      <c r="E1533" t="n">
+        <v>4941.89990234375</v>
+      </c>
+      <c r="F1533" t="n">
+        <v>153579</v>
+      </c>
+      <c r="G1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1533" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1533"/>
+  <dimension ref="A1:I1534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41836,6 +41836,33 @@
       </c>
       <c r="I1533" t="inlineStr"/>
     </row>
+    <row r="1534">
+      <c r="A1534" s="1" t="n">
+        <v>46057</v>
+      </c>
+      <c r="B1534" t="n">
+        <v>4966.10009765625</v>
+      </c>
+      <c r="C1534" t="n">
+        <v>5113.89990234375</v>
+      </c>
+      <c r="D1534" t="n">
+        <v>4930.39990234375</v>
+      </c>
+      <c r="E1534" t="n">
+        <v>5014.10009765625</v>
+      </c>
+      <c r="F1534" t="n">
+        <v>129384</v>
+      </c>
+      <c r="G1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1534" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1534"/>
+  <dimension ref="A1:I1535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41863,6 +41863,33 @@
       </c>
       <c r="I1534" t="inlineStr"/>
     </row>
+    <row r="1535">
+      <c r="A1535" s="1" t="n">
+        <v>46058</v>
+      </c>
+      <c r="B1535" t="n">
+        <v>4986.60009765625</v>
+      </c>
+      <c r="C1535" t="n">
+        <v>5045</v>
+      </c>
+      <c r="D1535" t="n">
+        <v>4805</v>
+      </c>
+      <c r="E1535" t="n">
+        <v>4867.7998046875</v>
+      </c>
+      <c r="F1535" t="n">
+        <v>153494</v>
+      </c>
+      <c r="G1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1535" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1535"/>
+  <dimension ref="A1:I1536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41890,6 +41890,33 @@
       </c>
       <c r="I1535" t="inlineStr"/>
     </row>
+    <row r="1536">
+      <c r="A1536" s="1" t="n">
+        <v>46059</v>
+      </c>
+      <c r="B1536" t="n">
+        <v>4800</v>
+      </c>
+      <c r="C1536" t="n">
+        <v>4971</v>
+      </c>
+      <c r="D1536" t="n">
+        <v>4670</v>
+      </c>
+      <c r="E1536" t="n">
+        <v>4966.60009765625</v>
+      </c>
+      <c r="F1536" t="n">
+        <v>126054</v>
+      </c>
+      <c r="G1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1536" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -41898,16 +41898,16 @@
         <v>4800</v>
       </c>
       <c r="C1536" t="n">
-        <v>4971</v>
+        <v>4995.60009765625</v>
       </c>
       <c r="D1536" t="n">
         <v>4670</v>
       </c>
       <c r="E1536" t="n">
-        <v>4966.60009765625</v>
+        <v>4979.7998046875</v>
       </c>
       <c r="F1536" t="n">
-        <v>126054</v>
+        <v>171364</v>
       </c>
       <c r="G1536" t="n">
         <v>0</v>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1536"/>
+  <dimension ref="A1:I1537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41917,6 +41917,33 @@
       </c>
       <c r="I1536" t="inlineStr"/>
     </row>
+    <row r="1537">
+      <c r="A1537" s="1" t="n">
+        <v>46062</v>
+      </c>
+      <c r="B1537" t="n">
+        <v>5003.60009765625</v>
+      </c>
+      <c r="C1537" t="n">
+        <v>5069</v>
+      </c>
+      <c r="D1537" t="n">
+        <v>4988.60009765625</v>
+      </c>
+      <c r="E1537" t="n">
+        <v>5053.89990234375</v>
+      </c>
+      <c r="F1537" t="n">
+        <v>78753</v>
+      </c>
+      <c r="G1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1537" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1537"/>
+  <dimension ref="A1:I1538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41944,6 +41944,33 @@
       </c>
       <c r="I1537" t="inlineStr"/>
     </row>
+    <row r="1538">
+      <c r="A1538" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="B1538" t="n">
+        <v>5084.2998046875</v>
+      </c>
+      <c r="C1538" t="n">
+        <v>5102.7001953125</v>
+      </c>
+      <c r="D1538" t="n">
+        <v>5011</v>
+      </c>
+      <c r="E1538" t="n">
+        <v>5057.89990234375</v>
+      </c>
+      <c r="F1538" t="n">
+        <v>69275</v>
+      </c>
+      <c r="G1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1538" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1538"/>
+  <dimension ref="A1:I1539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41971,6 +41971,33 @@
       </c>
       <c r="I1538" t="inlineStr"/>
     </row>
+    <row r="1539">
+      <c r="A1539" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="B1539" t="n">
+        <v>5048</v>
+      </c>
+      <c r="C1539" t="n">
+        <v>5144.5</v>
+      </c>
+      <c r="D1539" t="n">
+        <v>5036.2998046875</v>
+      </c>
+      <c r="E1539" t="n">
+        <v>5091.10009765625</v>
+      </c>
+      <c r="F1539" t="n">
+        <v>88311</v>
+      </c>
+      <c r="G1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1539" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1539"/>
+  <dimension ref="A1:I1540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41998,6 +41998,33 @@
       </c>
       <c r="I1539" t="inlineStr"/>
     </row>
+    <row r="1540">
+      <c r="A1540" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="B1540" t="n">
+        <v>5107.2998046875</v>
+      </c>
+      <c r="C1540" t="n">
+        <v>5122.7998046875</v>
+      </c>
+      <c r="D1540" t="n">
+        <v>5061.2998046875</v>
+      </c>
+      <c r="E1540" t="n">
+        <v>5075.5</v>
+      </c>
+      <c r="F1540" t="n">
+        <v>56980</v>
+      </c>
+      <c r="G1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1540" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1540"/>
+  <dimension ref="A1:I1541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42025,6 +42025,33 @@
       </c>
       <c r="I1540" t="inlineStr"/>
     </row>
+    <row r="1541">
+      <c r="A1541" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="B1541" t="n">
+        <v>4950</v>
+      </c>
+      <c r="C1541" t="n">
+        <v>5036.7001953125</v>
+      </c>
+      <c r="D1541" t="n">
+        <v>4907.10009765625</v>
+      </c>
+      <c r="E1541" t="n">
+        <v>5016</v>
+      </c>
+      <c r="F1541" t="n">
+        <v>73796</v>
+      </c>
+      <c r="G1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1541" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -42033,16 +42033,16 @@
         <v>4950</v>
       </c>
       <c r="C1541" t="n">
-        <v>5036.7001953125</v>
+        <v>5069.10009765625</v>
       </c>
       <c r="D1541" t="n">
         <v>4907.10009765625</v>
       </c>
       <c r="E1541" t="n">
-        <v>5016</v>
+        <v>5046.2998046875</v>
       </c>
       <c r="F1541" t="n">
-        <v>73796</v>
+        <v>118886</v>
       </c>
       <c r="G1541" t="n">
         <v>0</v>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1541"/>
+  <dimension ref="A1:I1542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42052,6 +42052,33 @@
       </c>
       <c r="I1541" t="inlineStr"/>
     </row>
+    <row r="1542">
+      <c r="A1542" s="1" t="n">
+        <v>46069</v>
+      </c>
+      <c r="B1542" t="n">
+        <v>5050</v>
+      </c>
+      <c r="C1542" t="n">
+        <v>5074.39990234375</v>
+      </c>
+      <c r="D1542" t="n">
+        <v>4981.89990234375</v>
+      </c>
+      <c r="E1542" t="n">
+        <v>5007</v>
+      </c>
+      <c r="F1542" t="n">
+        <v>32830</v>
+      </c>
+      <c r="G1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1542" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1542"/>
+  <dimension ref="A1:I1543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42079,6 +42079,33 @@
       </c>
       <c r="I1542" t="inlineStr"/>
     </row>
+    <row r="1543">
+      <c r="A1543" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="B1543" t="n">
+        <v>5050</v>
+      </c>
+      <c r="C1543" t="n">
+        <v>5074.39990234375</v>
+      </c>
+      <c r="D1543" t="n">
+        <v>4854.2001953125</v>
+      </c>
+      <c r="E1543" t="n">
+        <v>4883</v>
+      </c>
+      <c r="F1543" t="n">
+        <v>123995</v>
+      </c>
+      <c r="G1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1543" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1543"/>
+  <dimension ref="A1:I1544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42106,6 +42106,33 @@
       </c>
       <c r="I1543" t="inlineStr"/>
     </row>
+    <row r="1544">
+      <c r="A1544" s="1" t="n">
+        <v>46071</v>
+      </c>
+      <c r="B1544" t="n">
+        <v>4898.5</v>
+      </c>
+      <c r="C1544" t="n">
+        <v>5021.2998046875</v>
+      </c>
+      <c r="D1544" t="n">
+        <v>4868.5</v>
+      </c>
+      <c r="E1544" t="n">
+        <v>5018.5</v>
+      </c>
+      <c r="F1544" t="n">
+        <v>57837</v>
+      </c>
+      <c r="G1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1544" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1544"/>
+  <dimension ref="A1:I1545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42133,6 +42133,33 @@
       </c>
       <c r="I1544" t="inlineStr"/>
     </row>
+    <row r="1545">
+      <c r="A1545" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="B1545" t="n">
+        <v>4993.7001953125</v>
+      </c>
+      <c r="C1545" t="n">
+        <v>5040.89990234375</v>
+      </c>
+      <c r="D1545" t="n">
+        <v>4971.5</v>
+      </c>
+      <c r="E1545" t="n">
+        <v>5025.10009765625</v>
+      </c>
+      <c r="F1545" t="n">
+        <v>51096</v>
+      </c>
+      <c r="G1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1545" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1545"/>
+  <dimension ref="A1:I1546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42160,6 +42160,33 @@
       </c>
       <c r="I1545" t="inlineStr"/>
     </row>
+    <row r="1546">
+      <c r="A1546" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="B1546" t="n">
+        <v>5015</v>
+      </c>
+      <c r="C1546" t="n">
+        <v>5081.2001953125</v>
+      </c>
+      <c r="D1546" t="n">
+        <v>4999.2998046875</v>
+      </c>
+      <c r="E1546" t="n">
+        <v>5069.89990234375</v>
+      </c>
+      <c r="F1546" t="n">
+        <v>60917</v>
+      </c>
+      <c r="G1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1546" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gold_data.xlsx
+++ b/data/gold_data.xlsx
@@ -42168,16 +42168,16 @@
         <v>5015</v>
       </c>
       <c r="C1546" t="n">
-        <v>5081.2001953125</v>
+        <v>5131</v>
       </c>
       <c r="D1546" t="n">
         <v>4999.2998046875</v>
       </c>
       <c r="E1546" t="n">
-        <v>5069.89990234375</v>
+        <v>5080.89990234375</v>
       </c>
       <c r="F1546" t="n">
-        <v>60917</v>
+        <v>127969</v>
       </c>
       <c r="G1546" t="n">
         <v>0</v>
